--- a/data/member_portal/register_step1.xlsx
+++ b/data/member_portal/register_step1.xlsx
@@ -150,244 +150,243 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>密码长度小于8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>密码长度大于15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密码格式错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12345678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱格式错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assdfas@</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autob</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autoc@mm.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>China</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18812341234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18812341234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto1235</t>
+  </si>
+  <si>
+    <t>Auto1236</t>
+  </si>
+  <si>
+    <t>Auto1237</t>
+  </si>
+  <si>
+    <t>Auto1238</t>
+  </si>
+  <si>
+    <t>Auto1239</t>
+  </si>
+  <si>
+    <t>Auto1241</t>
+  </si>
+  <si>
+    <t>Auto1234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Auto123412341234</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorry, we are not able to open an account for you now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_tip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>189083894341</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sorry, we are not able to open an account for you now.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We do not provide service to your selected country</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password must be 8-15 characters in length and must include upper and lower-case letters and numbers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password must be 8-15 characters in length and must include upper and lower-case letters and numbers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please enter the correct email address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sql</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_tip 用于判断是否需要点击下一步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag 用于判断断言方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码长度小于8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>密码长度大于15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密码格式错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12345678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮箱格式错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assdfas@</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autob</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autoc@mm.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>China</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18812341234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18812341234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autod</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auto1235</t>
-  </si>
-  <si>
-    <t>Auto1236</t>
-  </si>
-  <si>
-    <t>Auto1237</t>
-  </si>
-  <si>
-    <t>Auto1238</t>
-  </si>
-  <si>
-    <t>Auto1239</t>
-  </si>
-  <si>
-    <t>Auto1241</t>
-  </si>
-  <si>
-    <t>Auto1234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auto123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Auto123412341234</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sorry, we are not able to open an account for you now.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_tip</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>189083894341</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sorry, we are not able to open an account for you now.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>We do not provide service to your selected country</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password must be 8-15 characters in length and must include upper and lower-case letters and numbers.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Password must be 8-15 characters in length and must include upper and lower-case letters and numbers.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Please enter the correct email address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sql</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_tip 用于判断是否需要点击下一步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>flag 用于判断断言方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -751,7 +750,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -802,13 +801,13 @@
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>10</v>
@@ -822,13 +821,13 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>30</v>
@@ -846,10 +845,10 @@
         <v>31</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>32</v>
@@ -863,13 +862,13 @@
         <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>33</v>
@@ -878,22 +877,22 @@
         <v>34</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
@@ -904,37 +903,37 @@
         <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="K4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
@@ -945,31 +944,31 @@
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
@@ -980,31 +979,31 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
@@ -1015,31 +1014,31 @@
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H7" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
@@ -1050,219 +1049,219 @@
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="I9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="C10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="F11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="H11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="J12" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="G13" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
